--- a/05.Report/TableS3.Compound_classification.xlsx
+++ b/05.Report/TableS3.Compound_classification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/My_Repo/P.sibiricum/04.Result/01.Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawn/My_Repo/P.sibiricum/05.Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC0EF89-6E91-A34C-B63D-1318714DCCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8A44C2-C20A-C64F-814C-E1747FA581CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-740" windowWidth="13340" windowHeight="21120" xr2:uid="{D16E52CA-60E3-C940-8274-4EADB0219712}"/>
+    <workbookView xWindow="38400" yWindow="-740" windowWidth="35160" windowHeight="21120" xr2:uid="{D16E52CA-60E3-C940-8274-4EADB0219712}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$633</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3296,11 +3296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9A7FC6-33FA-C046-91FC-AABD44A4169E}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D381" sqref="D381"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3330,7 +3329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>929</v>
       </c>
@@ -3344,7 +3343,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>647</v>
       </c>
@@ -3356,7 +3355,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>328</v>
       </c>
@@ -3368,7 +3367,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>429</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>934</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>935</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>804</v>
       </c>
@@ -3424,7 +3423,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>565</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>696</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>948</v>
       </c>
@@ -3466,7 +3465,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>363</v>
       </c>
@@ -3478,7 +3477,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>687</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>803</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>943</v>
       </c>
@@ -3520,7 +3519,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>386</v>
       </c>
@@ -3532,7 +3531,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>543</v>
       </c>
@@ -3544,7 +3543,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>564</v>
       </c>
@@ -3556,7 +3555,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>635</v>
       </c>
@@ -3568,7 +3567,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>689</v>
       </c>
@@ -3580,7 +3579,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>693</v>
       </c>
@@ -3592,7 +3591,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>371</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>437</v>
       </c>
@@ -3618,7 +3617,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>448</v>
       </c>
@@ -3630,7 +3629,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>950</v>
       </c>
@@ -3642,7 +3641,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>341</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>343</v>
       </c>
@@ -3670,7 +3669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>344</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>392</v>
       </c>
@@ -3698,7 +3697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>487</v>
       </c>
@@ -3712,7 +3711,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>488</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>492</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>493</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>494</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>592</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>605</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>592</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>608</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>605</v>
       </c>
@@ -3838,7 +3837,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>661</v>
       </c>
@@ -3852,7 +3851,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>668</v>
       </c>
@@ -3866,7 +3865,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>673</v>
       </c>
@@ -3880,7 +3879,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>674</v>
       </c>
@@ -3894,7 +3893,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>729</v>
       </c>
@@ -3908,7 +3907,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>737</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>741</v>
       </c>
@@ -3936,7 +3935,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>746</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>825</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>826</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>829</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>871</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>875</v>
       </c>
@@ -4020,7 +4019,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>880</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>884</v>
       </c>
@@ -4048,7 +4047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>887</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>889</v>
       </c>
@@ -4076,7 +4075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>890</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>893</v>
       </c>
@@ -4104,7 +4103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>667</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>676</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>336</v>
       </c>
@@ -4146,7 +4145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>659</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>869</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>485</v>
       </c>
@@ -4186,7 +4185,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>670</v>
       </c>
@@ -4198,7 +4197,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>636</v>
       </c>
@@ -4210,7 +4209,7 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>802</v>
       </c>
@@ -4222,7 +4221,7 @@
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>426</v>
       </c>
@@ -4234,7 +4233,7 @@
       </c>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>432</v>
       </c>
@@ -4248,7 +4247,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>690</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>694</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>786</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>855</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>933</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>940</v>
       </c>
@@ -4330,7 +4329,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>364</v>
       </c>
@@ -4342,7 +4341,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>638</v>
       </c>
@@ -4354,7 +4353,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>796</v>
       </c>
@@ -4366,7 +4365,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>551</v>
       </c>
@@ -4378,7 +4377,7 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>548</v>
       </c>
@@ -4390,7 +4389,7 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>632</v>
       </c>
@@ -4402,7 +4401,7 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>800</v>
       </c>
@@ -4414,7 +4413,7 @@
       </c>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>369</v>
       </c>
@@ -4428,7 +4427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>549</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>791</v>
       </c>
@@ -4456,7 +4455,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>435</v>
       </c>
@@ -4468,7 +4467,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>500</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>347</v>
       </c>
@@ -4494,7 +4493,7 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>368</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>544</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>634</v>
       </c>
@@ -4536,7 +4535,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>794</v>
       </c>
@@ -4548,7 +4547,7 @@
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>798</v>
       </c>
@@ -4560,7 +4559,7 @@
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>937</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>946</v>
       </c>
@@ -4588,7 +4587,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>932</v>
       </c>
@@ -4600,7 +4599,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>559</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>792</v>
       </c>
@@ -4628,7 +4627,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>402</v>
       </c>
@@ -4642,7 +4641,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>542</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>692</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>751</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>337</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>338</v>
       </c>
@@ -4712,7 +4711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>339</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>340</v>
       </c>
@@ -4740,7 +4739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>342</v>
       </c>
@@ -4754,7 +4753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>345</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>390</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>391</v>
       </c>
@@ -4796,7 +4795,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>395</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>397</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>398</v>
       </c>
@@ -4838,7 +4837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>399</v>
       </c>
@@ -4852,7 +4851,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>476</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>478</v>
       </c>
@@ -4880,7 +4879,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>479</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>482</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>483</v>
       </c>
@@ -4922,7 +4921,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>491</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>497</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>498</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>594</v>
       </c>
@@ -4978,7 +4977,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>595</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>596</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>597</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>598</v>
       </c>
@@ -5034,7 +5033,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>604</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>606</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>607</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>610</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>662</v>
       </c>
@@ -5104,7 +5103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>663</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>664</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>666</v>
       </c>
@@ -5146,7 +5145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>671</v>
       </c>
@@ -5160,7 +5159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>675</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>678</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>721</v>
       </c>
@@ -5202,7 +5201,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>722</v>
       </c>
@@ -5216,7 +5215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>728</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>731</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>733</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>735</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>743</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>744</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>749</v>
       </c>
@@ -5314,7 +5313,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>824</v>
       </c>
@@ -5328,7 +5327,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>827</v>
       </c>
@@ -5342,7 +5341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>828</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>830</v>
       </c>
@@ -5370,7 +5369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>831</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>832</v>
       </c>
@@ -5398,7 +5397,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>834</v>
       </c>
@@ -5412,7 +5411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>872</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>877</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>879</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>881</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>883</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>885</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>892</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>428</v>
       </c>
@@ -5522,7 +5521,7 @@
       </c>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>939</v>
       </c>
@@ -5534,7 +5533,7 @@
       </c>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>378</v>
       </c>
@@ -5548,7 +5547,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>382</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>456</v>
       </c>
@@ -5576,7 +5575,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>583</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>658</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>701</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>718</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>811</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>819</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>820</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>866</v>
       </c>
@@ -5688,7 +5687,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>868</v>
       </c>
@@ -5702,7 +5701,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>330</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>333</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>649</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>587</v>
       </c>
@@ -5756,7 +5755,7 @@
       </c>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>379</v>
       </c>
@@ -5768,7 +5767,7 @@
       </c>
       <c r="D181" s="2"/>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>810</v>
       </c>
@@ -5782,7 +5781,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>815</v>
       </c>
@@ -5794,7 +5793,7 @@
       </c>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>352</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>612</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>617</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>759</v>
       </c>
@@ -5850,7 +5849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>761</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>554</v>
       </c>
@@ -5876,7 +5875,7 @@
       </c>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>688</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>799</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>785</v>
       </c>
@@ -5916,7 +5915,7 @@
       </c>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>356</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>357</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>358</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>359</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>360</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>361</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>362</v>
       </c>
@@ -6014,7 +6013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>414</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>415</v>
       </c>
@@ -6042,7 +6041,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>416</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>417</v>
       </c>
@@ -6070,7 +6069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>418</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>419</v>
       </c>
@@ -6098,7 +6097,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>420</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>421</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>422</v>
       </c>
@@ -6140,7 +6139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>523</v>
       </c>
@@ -6154,7 +6153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>524</v>
       </c>
@@ -6168,7 +6167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>525</v>
       </c>
@@ -6182,7 +6181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>526</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>527</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>528</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>529</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>530</v>
       </c>
@@ -6252,7 +6251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>531</v>
       </c>
@@ -6266,7 +6265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>532</v>
       </c>
@@ -6280,7 +6279,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>533</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>534</v>
       </c>
@@ -6308,7 +6307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>535</v>
       </c>
@@ -6322,7 +6321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>536</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>537</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>538</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>539</v>
       </c>
@@ -6378,7 +6377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>540</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>626</v>
       </c>
@@ -6406,7 +6405,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>627</v>
       </c>
@@ -6420,7 +6419,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>628</v>
       </c>
@@ -6434,7 +6433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>629</v>
       </c>
@@ -6448,7 +6447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>630</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>684</v>
       </c>
@@ -6476,7 +6475,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>685</v>
       </c>
@@ -6490,7 +6489,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>773</v>
       </c>
@@ -6504,7 +6503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>774</v>
       </c>
@@ -6518,7 +6517,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>775</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>776</v>
       </c>
@@ -6546,7 +6545,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>777</v>
       </c>
@@ -6560,7 +6559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>778</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>779</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>780</v>
       </c>
@@ -6602,7 +6601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>781</v>
       </c>
@@ -6616,7 +6615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>782</v>
       </c>
@@ -6630,7 +6629,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>783</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>784</v>
       </c>
@@ -6658,7 +6657,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>851</v>
       </c>
@@ -6672,7 +6671,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>923</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>924</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>925</v>
       </c>
@@ -6714,7 +6713,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>927</v>
       </c>
@@ -6728,7 +6727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>928</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>355</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>412</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>413</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>412</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>522</v>
       </c>
@@ -6812,7 +6811,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>624</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>625</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>682</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>683</v>
       </c>
@@ -6868,7 +6867,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>768</v>
       </c>
@@ -6882,7 +6881,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>769</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>770</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>771</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>772</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>846</v>
       </c>
@@ -6952,7 +6951,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>847</v>
       </c>
@@ -6966,7 +6965,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>848</v>
       </c>
@@ -6980,7 +6979,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>849</v>
       </c>
@@ -6994,7 +6993,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>850</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>919</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>920</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>921</v>
       </c>
@@ -7050,7 +7049,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>922</v>
       </c>
@@ -7064,7 +7063,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>695</v>
       </c>
@@ -7078,7 +7077,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>858</v>
       </c>
@@ -7092,7 +7091,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>859</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>513</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>760</v>
       </c>
@@ -7134,7 +7133,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>410</v>
       </c>
@@ -7148,7 +7147,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>841</v>
       </c>
@@ -7162,7 +7161,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>907</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>909</v>
       </c>
@@ -7190,7 +7189,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>910</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>917</v>
       </c>
@@ -7218,7 +7217,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>354</v>
       </c>
@@ -7232,7 +7231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>521</v>
       </c>
@@ -7246,7 +7245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>613</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>926</v>
       </c>
@@ -7274,7 +7273,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>763</v>
       </c>
@@ -7288,7 +7287,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>401</v>
       </c>
@@ -7302,7 +7301,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>473</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>566</v>
       </c>
@@ -7330,7 +7329,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>365</v>
       </c>
@@ -7342,7 +7341,7 @@
       </c>
       <c r="D294" s="2"/>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>639</v>
       </c>
@@ -7354,7 +7353,7 @@
       </c>
       <c r="D295" s="2"/>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>789</v>
       </c>
@@ -7366,7 +7365,7 @@
       </c>
       <c r="D296" s="2"/>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>852</v>
       </c>
@@ -7378,7 +7377,7 @@
       </c>
       <c r="D297" s="2"/>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>945</v>
       </c>
@@ -7390,7 +7389,7 @@
       </c>
       <c r="D298" s="2"/>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>691</v>
       </c>
@@ -7402,7 +7401,7 @@
       </c>
       <c r="D299" s="2"/>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>387</v>
       </c>
@@ -7416,7 +7415,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>465</v>
       </c>
@@ -7430,7 +7429,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>472</v>
       </c>
@@ -7444,7 +7443,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>651</v>
       </c>
@@ -7458,7 +7457,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>653</v>
       </c>
@@ -7472,7 +7471,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>470</v>
       </c>
@@ -7486,7 +7485,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>894</v>
       </c>
@@ -7500,7 +7499,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>578</v>
       </c>
@@ -7512,7 +7511,7 @@
       </c>
       <c r="D307" s="2"/>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>444</v>
       </c>
@@ -7524,7 +7523,7 @@
       </c>
       <c r="D308" s="2"/>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>645</v>
       </c>
@@ -7536,7 +7535,7 @@
       </c>
       <c r="D309" s="2"/>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>805</v>
       </c>
@@ -7548,7 +7547,7 @@
       </c>
       <c r="D310" s="2"/>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>576</v>
       </c>
@@ -7560,7 +7559,7 @@
       </c>
       <c r="D311" s="2"/>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>449</v>
       </c>
@@ -7574,7 +7573,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>643</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>720</v>
       </c>
@@ -7600,7 +7599,7 @@
       </c>
       <c r="D314" s="2"/>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>588</v>
       </c>
@@ -7612,7 +7611,7 @@
       </c>
       <c r="D315" s="2"/>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>936</v>
       </c>
@@ -7626,7 +7625,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>545</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>550</v>
       </c>
@@ -7654,7 +7653,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>407</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>942</v>
       </c>
@@ -7682,7 +7681,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>370</v>
       </c>
@@ -7696,7 +7695,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>861</v>
       </c>
@@ -7710,7 +7709,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>953</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>787</v>
       </c>
@@ -7736,7 +7735,7 @@
       </c>
       <c r="D324" s="2"/>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>424</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>431</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>541</v>
       </c>
@@ -7778,7 +7777,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>633</v>
       </c>
@@ -7792,7 +7791,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>790</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>857</v>
       </c>
@@ -7820,7 +7819,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>930</v>
       </c>
@@ -7834,7 +7833,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>938</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>941</v>
       </c>
@@ -7862,7 +7861,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>353</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>502</v>
       </c>
@@ -7890,7 +7889,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>508</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>515</v>
       </c>
@@ -7918,7 +7917,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>758</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>560</v>
       </c>
@@ -7944,7 +7943,7 @@
       </c>
       <c r="D339" s="2"/>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>373</v>
       </c>
@@ -7956,7 +7955,7 @@
       </c>
       <c r="D340" s="2"/>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>631</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>474</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>393</v>
       </c>
@@ -7998,7 +7997,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>724</v>
       </c>
@@ -8012,7 +8011,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>725</v>
       </c>
@@ -8026,7 +8025,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>873</v>
       </c>
@@ -8040,7 +8039,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>888</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>723</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>874</v>
       </c>
@@ -8082,7 +8081,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>553</v>
       </c>
@@ -8094,7 +8093,7 @@
       </c>
       <c r="D350" s="2"/>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>944</v>
       </c>
@@ -8106,7 +8105,7 @@
       </c>
       <c r="D351" s="2"/>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>580</v>
       </c>
@@ -8118,7 +8117,7 @@
       </c>
       <c r="D352" s="2"/>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>808</v>
       </c>
@@ -8130,7 +8129,7 @@
       </c>
       <c r="D353" s="2"/>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>870</v>
       </c>
@@ -8142,7 +8141,7 @@
       </c>
       <c r="D354" s="2"/>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>372</v>
       </c>
@@ -8156,7 +8155,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>439</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>441</v>
       </c>
@@ -8184,7 +8183,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>442</v>
       </c>
@@ -8198,7 +8197,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>445</v>
       </c>
@@ -8212,7 +8211,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>450</v>
       </c>
@@ -8226,7 +8225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>451</v>
       </c>
@@ -8240,7 +8239,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>569</v>
       </c>
@@ -8254,7 +8253,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>570</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>571</v>
       </c>
@@ -8282,7 +8281,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>574</v>
       </c>
@@ -8296,7 +8295,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>575</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>577</v>
       </c>
@@ -8324,7 +8323,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>644</v>
       </c>
@@ -8338,7 +8337,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>697</v>
       </c>
@@ -8352,7 +8351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>862</v>
       </c>
@@ -8366,7 +8365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>951</v>
       </c>
@@ -9108,7 +9107,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>806</v>
       </c>
@@ -9122,7 +9121,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>807</v>
       </c>
@@ -9136,7 +9135,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>854</v>
       </c>
@@ -9150,7 +9149,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>331</v>
       </c>
@@ -9162,7 +9161,7 @@
       </c>
       <c r="D427" s="2"/>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>546</v>
       </c>
@@ -9176,7 +9175,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>556</v>
       </c>
@@ -9190,7 +9189,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>642</v>
       </c>
@@ -9204,7 +9203,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>366</v>
       </c>
@@ -9218,7 +9217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>427</v>
       </c>
@@ -9232,7 +9231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>436</v>
       </c>
@@ -9246,7 +9245,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>637</v>
       </c>
@@ -9260,7 +9259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>788</v>
       </c>
@@ -9274,7 +9273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>797</v>
       </c>
@@ -9288,7 +9287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
         <v>856</v>
       </c>
@@ -9302,7 +9301,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>572</v>
       </c>
@@ -9316,7 +9315,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>440</v>
       </c>
@@ -9330,7 +9329,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
         <v>447</v>
       </c>
@@ -9342,7 +9341,7 @@
       </c>
       <c r="D440" s="2"/>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
         <v>567</v>
       </c>
@@ -9356,7 +9355,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
         <v>860</v>
       </c>
@@ -9370,7 +9369,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>430</v>
       </c>
@@ -9382,7 +9381,7 @@
       </c>
       <c r="D443" s="2"/>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
         <v>438</v>
       </c>
@@ -9396,7 +9395,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>443</v>
       </c>
@@ -9410,7 +9409,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
         <v>446</v>
       </c>
@@ -9424,7 +9423,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
         <v>452</v>
       </c>
@@ -9438,7 +9437,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
         <v>573</v>
       </c>
@@ -9452,7 +9451,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>949</v>
       </c>
@@ -9466,7 +9465,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
         <v>949</v>
       </c>
@@ -9480,7 +9479,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>952</v>
       </c>
@@ -9494,7 +9493,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
         <v>348</v>
       </c>
@@ -9508,7 +9507,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
         <v>349</v>
       </c>
@@ -9522,7 +9521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
         <v>350</v>
       </c>
@@ -9536,7 +9535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
         <v>351</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
         <v>403</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
         <v>404</v>
       </c>
@@ -9578,7 +9577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
         <v>405</v>
       </c>
@@ -9592,7 +9591,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
         <v>406</v>
       </c>
@@ -9606,7 +9605,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
         <v>408</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>409</v>
       </c>
@@ -9634,7 +9633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
         <v>411</v>
       </c>
@@ -9648,7 +9647,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
         <v>501</v>
       </c>
@@ -9662,7 +9661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
         <v>503</v>
       </c>
@@ -9676,7 +9675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
         <v>504</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
         <v>505</v>
       </c>
@@ -9704,7 +9703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
         <v>506</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
         <v>507</v>
       </c>
@@ -9732,7 +9731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
         <v>509</v>
       </c>
@@ -9746,7 +9745,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
         <v>510</v>
       </c>
@@ -9760,7 +9759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
         <v>511</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
         <v>512</v>
       </c>
@@ -9788,7 +9787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
         <v>514</v>
       </c>
@@ -9802,7 +9801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
         <v>516</v>
       </c>
@@ -9816,7 +9815,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
         <v>517</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
         <v>518</v>
       </c>
@@ -9844,7 +9843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
         <v>519</v>
       </c>
@@ -9858,7 +9857,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
         <v>520</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
         <v>611</v>
       </c>
@@ -9886,7 +9885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
         <v>614</v>
       </c>
@@ -9900,7 +9899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
         <v>615</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
         <v>616</v>
       </c>
@@ -9928,7 +9927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
         <v>618</v>
       </c>
@@ -9942,7 +9941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
         <v>619</v>
       </c>
@@ -9956,7 +9955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
         <v>620</v>
       </c>
@@ -9970,7 +9969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
         <v>621</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
         <v>622</v>
       </c>
@@ -9998,7 +9997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
         <v>623</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
         <v>679</v>
       </c>
@@ -10026,7 +10025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
         <v>680</v>
       </c>
@@ -10040,7 +10039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
         <v>681</v>
       </c>
@@ -10054,7 +10053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
         <v>752</v>
       </c>
@@ -10068,7 +10067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
         <v>753</v>
       </c>
@@ -10082,7 +10081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
         <v>754</v>
       </c>
@@ -10096,7 +10095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
         <v>755</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
         <v>756</v>
       </c>
@@ -10124,7 +10123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
         <v>757</v>
       </c>
@@ -10138,7 +10137,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
         <v>762</v>
       </c>
@@ -10152,7 +10151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>764</v>
       </c>
@@ -10166,7 +10165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
         <v>765</v>
       </c>
@@ -10180,7 +10179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
         <v>766</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
         <v>767</v>
       </c>
@@ -10208,7 +10207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
         <v>837</v>
       </c>
@@ -10222,7 +10221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
         <v>838</v>
       </c>
@@ -10236,7 +10235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
         <v>839</v>
       </c>
@@ -10250,7 +10249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
         <v>840</v>
       </c>
@@ -10264,7 +10263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
         <v>842</v>
       </c>
@@ -10278,7 +10277,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
         <v>843</v>
       </c>
@@ -10292,7 +10291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
         <v>844</v>
       </c>
@@ -10306,7 +10305,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
         <v>845</v>
       </c>
@@ -10320,7 +10319,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
         <v>895</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
         <v>896</v>
       </c>
@@ -10348,7 +10347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
         <v>897</v>
       </c>
@@ -10362,7 +10361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
         <v>898</v>
       </c>
@@ -10376,7 +10375,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
         <v>899</v>
       </c>
@@ -10390,7 +10389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
         <v>900</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
         <v>901</v>
       </c>
@@ -10418,7 +10417,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
         <v>902</v>
       </c>
@@ -10432,7 +10431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
         <v>903</v>
       </c>
@@ -10446,7 +10445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
         <v>904</v>
       </c>
@@ -10460,7 +10459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
         <v>905</v>
       </c>
@@ -10474,7 +10473,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
         <v>906</v>
       </c>
@@ -10488,7 +10487,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
         <v>908</v>
       </c>
@@ -10502,7 +10501,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
         <v>911</v>
       </c>
@@ -10516,7 +10515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
         <v>912</v>
       </c>
@@ -10530,7 +10529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
         <v>913</v>
       </c>
@@ -10544,7 +10543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
         <v>914</v>
       </c>
@@ -10558,7 +10557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
         <v>915</v>
       </c>
@@ -10572,7 +10571,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
         <v>916</v>
       </c>
@@ -10586,7 +10585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
         <v>918</v>
       </c>
@@ -10600,7 +10599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
         <v>686</v>
       </c>
@@ -10612,7 +10611,7 @@
       </c>
       <c r="D531" s="2"/>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
         <v>552</v>
       </c>
@@ -10626,7 +10625,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
         <v>433</v>
       </c>
@@ -10640,7 +10639,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
         <v>434</v>
       </c>
@@ -10652,7 +10651,7 @@
       </c>
       <c r="D534" s="2"/>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
         <v>562</v>
       </c>
@@ -10666,7 +10665,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
         <v>563</v>
       </c>
@@ -10678,7 +10677,7 @@
       </c>
       <c r="D536" s="2"/>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
         <v>367</v>
       </c>
@@ -10692,7 +10691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
         <v>547</v>
       </c>
@@ -10706,7 +10705,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
         <v>793</v>
       </c>
@@ -10720,7 +10719,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
         <v>853</v>
       </c>
@@ -10734,7 +10733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
         <v>641</v>
       </c>
@@ -10746,7 +10745,7 @@
       </c>
       <c r="D541" s="2"/>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
         <v>801</v>
       </c>
@@ -10758,7 +10757,7 @@
       </c>
       <c r="D542" s="2"/>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
         <v>795</v>
       </c>
@@ -10770,7 +10769,7 @@
       </c>
       <c r="D543" s="2"/>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
         <v>947</v>
       </c>
@@ -10782,7 +10781,7 @@
       </c>
       <c r="D544" s="2"/>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
         <v>931</v>
       </c>
@@ -10796,7 +10795,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="s">
         <v>329</v>
       </c>
@@ -10810,7 +10809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="s">
         <v>332</v>
       </c>
@@ -10824,7 +10823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="s">
         <v>334</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
         <v>335</v>
       </c>
@@ -10852,7 +10851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="s">
         <v>374</v>
       </c>
@@ -10866,7 +10865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="2" t="s">
         <v>375</v>
       </c>
@@ -10880,7 +10879,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="2" t="s">
         <v>376</v>
       </c>
@@ -10894,7 +10893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
         <v>377</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="2" t="s">
         <v>380</v>
       </c>
@@ -10922,7 +10921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="2" t="s">
         <v>381</v>
       </c>
@@ -10936,7 +10935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
         <v>383</v>
       </c>
@@ -10948,7 +10947,7 @@
       </c>
       <c r="D556" s="2"/>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="2" t="s">
         <v>384</v>
       </c>
@@ -10962,7 +10961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="2" t="s">
         <v>385</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="2" t="s">
         <v>388</v>
       </c>
@@ -10990,7 +10989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="2" t="s">
         <v>455</v>
       </c>
@@ -11004,7 +11003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="2" t="s">
         <v>457</v>
       </c>
@@ -11018,7 +11017,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="s">
         <v>458</v>
       </c>
@@ -11032,7 +11031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
         <v>459</v>
       </c>
@@ -11046,7 +11045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="s">
         <v>460</v>
       </c>
@@ -11060,7 +11059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="2" t="s">
         <v>461</v>
       </c>
@@ -11074,7 +11073,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="2" t="s">
         <v>462</v>
       </c>
@@ -11088,7 +11087,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
         <v>463</v>
       </c>
@@ -11102,7 +11101,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
         <v>464</v>
       </c>
@@ -11114,7 +11113,7 @@
       </c>
       <c r="D568" s="2"/>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="2" t="s">
         <v>466</v>
       </c>
@@ -11128,7 +11127,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="2" t="s">
         <v>467</v>
       </c>
@@ -11142,7 +11141,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="2" t="s">
         <v>468</v>
       </c>
@@ -11156,7 +11155,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="2" t="s">
         <v>469</v>
       </c>
@@ -11170,7 +11169,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="2" t="s">
         <v>581</v>
       </c>
@@ -11184,7 +11183,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="2" t="s">
         <v>582</v>
       </c>
@@ -11198,7 +11197,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="2" t="s">
         <v>584</v>
       </c>
@@ -11212,7 +11211,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="2" t="s">
         <v>585</v>
       </c>
@@ -11226,7 +11225,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" s="2" t="s">
         <v>586</v>
       </c>
@@ -11240,7 +11239,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="2" t="s">
         <v>648</v>
       </c>
@@ -11252,7 +11251,7 @@
       </c>
       <c r="D578" s="2"/>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="2" t="s">
         <v>650</v>
       </c>
@@ -11266,7 +11265,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" s="2" t="s">
         <v>652</v>
       </c>
@@ -11280,7 +11279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="2" t="s">
         <v>654</v>
       </c>
@@ -11294,7 +11293,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" s="2" t="s">
         <v>655</v>
       </c>
@@ -11308,7 +11307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" s="2" t="s">
         <v>656</v>
       </c>
@@ -11322,7 +11321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" s="2" t="s">
         <v>657</v>
       </c>
@@ -11336,7 +11335,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" s="2" t="s">
         <v>700</v>
       </c>
@@ -11350,7 +11349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" s="2" t="s">
         <v>702</v>
       </c>
@@ -11364,7 +11363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" s="2" t="s">
         <v>704</v>
       </c>
@@ -11378,7 +11377,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
         <v>705</v>
       </c>
@@ -11392,7 +11391,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="2" t="s">
         <v>706</v>
       </c>
@@ -11406,7 +11405,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
         <v>707</v>
       </c>
@@ -11420,7 +11419,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" s="2" t="s">
         <v>708</v>
       </c>
@@ -11434,7 +11433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" s="2" t="s">
         <v>709</v>
       </c>
@@ -11448,7 +11447,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="2" t="s">
         <v>710</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" s="2" t="s">
         <v>711</v>
       </c>
@@ -11476,7 +11475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" s="2" t="s">
         <v>712</v>
       </c>
@@ -11490,7 +11489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" s="2" t="s">
         <v>713</v>
       </c>
@@ -11504,7 +11503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" s="2" t="s">
         <v>714</v>
       </c>
@@ -11518,7 +11517,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="2" t="s">
         <v>715</v>
       </c>
@@ -11532,7 +11531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="2" t="s">
         <v>716</v>
       </c>
@@ -11546,7 +11545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" s="2" t="s">
         <v>717</v>
       </c>
@@ -11560,7 +11559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" s="2" t="s">
         <v>719</v>
       </c>
@@ -11574,7 +11573,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" s="2" t="s">
         <v>809</v>
       </c>
@@ -11588,7 +11587,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="2" t="s">
         <v>812</v>
       </c>
@@ -11602,7 +11601,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" s="2" t="s">
         <v>813</v>
       </c>
@@ -11616,7 +11615,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" s="2" t="s">
         <v>814</v>
       </c>
@@ -11630,7 +11629,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" s="2" t="s">
         <v>816</v>
       </c>
@@ -11644,7 +11643,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="2" t="s">
         <v>817</v>
       </c>
@@ -11658,7 +11657,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" s="2" t="s">
         <v>818</v>
       </c>
@@ -11672,7 +11671,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" s="2" t="s">
         <v>821</v>
       </c>
@@ -11686,7 +11685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" s="2" t="s">
         <v>822</v>
       </c>
@@ -11698,7 +11697,7 @@
       </c>
       <c r="D610" s="2"/>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" s="2" t="s">
         <v>865</v>
       </c>
@@ -11712,7 +11711,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" s="2" t="s">
         <v>867</v>
       </c>
@@ -11726,7 +11725,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" s="2" t="s">
         <v>425</v>
       </c>
@@ -11740,7 +11739,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" s="2" t="s">
         <v>555</v>
       </c>
@@ -11754,7 +11753,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" s="2" t="s">
         <v>557</v>
       </c>
@@ -11768,7 +11767,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" s="2" t="s">
         <v>561</v>
       </c>
@@ -11780,7 +11779,7 @@
       </c>
       <c r="D616" s="2"/>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" s="2" t="s">
         <v>558</v>
       </c>
@@ -11792,7 +11791,7 @@
       </c>
       <c r="D617" s="2"/>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" s="2" t="s">
         <v>640</v>
       </c>
@@ -11804,7 +11803,7 @@
       </c>
       <c r="D618" s="2"/>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" s="2" t="s">
         <v>423</v>
       </c>
@@ -11816,7 +11815,7 @@
       </c>
       <c r="D619" s="2"/>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" s="2" t="s">
         <v>454</v>
       </c>
@@ -11828,7 +11827,7 @@
       </c>
       <c r="D620" s="2"/>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" s="2" t="s">
         <v>864</v>
       </c>
@@ -11840,7 +11839,7 @@
       </c>
       <c r="D621" s="2"/>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" s="2" t="s">
         <v>646</v>
       </c>
@@ -11852,7 +11851,7 @@
       </c>
       <c r="D622" s="2"/>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" s="2" t="s">
         <v>471</v>
       </c>
@@ -11866,7 +11865,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" s="2" t="s">
         <v>703</v>
       </c>
@@ -11878,7 +11877,7 @@
       </c>
       <c r="D624" s="2"/>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="s">
         <v>568</v>
       </c>
@@ -11890,7 +11889,7 @@
       </c>
       <c r="D625" s="2"/>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="s">
         <v>346</v>
       </c>
@@ -11904,7 +11903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" s="2" t="s">
         <v>579</v>
       </c>
@@ -11916,7 +11915,7 @@
       </c>
       <c r="D627" s="2"/>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" s="2" t="s">
         <v>750</v>
       </c>
@@ -11930,7 +11929,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" s="2" t="s">
         <v>453</v>
       </c>
@@ -11940,7 +11939,7 @@
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" s="2" t="s">
         <v>698</v>
       </c>
@@ -11950,7 +11949,7 @@
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" s="2" t="s">
         <v>699</v>
       </c>
@@ -11960,7 +11959,7 @@
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" s="2" t="s">
         <v>863</v>
       </c>
@@ -11970,7 +11969,7 @@
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
     </row>
-    <row r="633" spans="1:4" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
         <v>475</v>
       </c>
@@ -11981,13 +11980,7 @@
       <c r="D633" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D633" xr:uid="{DF9A7FC6-33FA-C046-91FC-AABD44A4169E}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Fatty Acyls"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:D633" xr:uid="{DF9A7FC6-33FA-C046-91FC-AABD44A4169E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D633">
     <sortCondition descending="1" ref="C633"/>
   </sortState>
